--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/7_Ankara_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/7_Ankara_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20BDC0B3-8584-4E4D-9744-5A56B8D6CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA896088-3AF5-40DD-AF3C-B5430727B47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{62650C18-2BF5-4CA2-8798-E2A43C6F3F92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{730B68FF-6B33-4899-96D6-849655891823}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -909,15 +909,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{763BC957-CC78-4369-89EC-357C44B19C31}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EA571D01-A62E-4041-80DD-8006DFAB226D}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{5486C999-ABDE-428B-A8B7-17FD23CABDE4}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{AAF1589E-28DB-4964-AC42-E6D9D4DE3061}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{B9C4E14B-089A-455D-B308-379792524B52}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D5B7C31B-E222-45D2-8A77-D434466BFDD1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{679F707C-1806-405C-B427-0B14A02E7185}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{8446BDE3-20C5-4654-958C-81B6FDA5783C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C69C56E0-D011-433E-A24E-9334BBB87FB0}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D17985D2-DB44-421A-935B-5C7B37A71E7A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{535D15F5-C870-4076-AD0D-DA4670BC2757}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{07069CE6-8D16-42BC-B4B1-7701296E847A}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{E4C67A97-5B74-4042-9EA4-7F404721C85B}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{4279AF5B-1CD0-4B34-BEBF-609942513942}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{3805CE12-DABE-4313-A226-143F2E703311}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A8EBC1C4-FE47-4631-9957-19441F3C6905}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{7C6FFE45-C08E-4CCF-8D22-3018ADEF1A8E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D34EEB4C-38C2-4CC3-B0F4-DFC48FBA5FDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1287,7 +1287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F585BC8F-A0F7-4721-ABEF-233DE7A9FDD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0E302-F1A8-4D74-84C7-2ADF4EA21310}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0931058C-CBD4-4D18-818D-C02BF7919C71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9F3B38-DE8E-430E-AFE4-3EE9F8BDD3EF}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3950,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C37767-CD34-44CF-AA4F-6DB33169C85C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E25ED26-0109-43CC-B21C-94018FAD0A02}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5284,7 +5284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314767F1-8E04-4825-B6BC-228CB349028B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEEDE8E8-16D3-4E0E-B149-5C6FF3EF1782}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6614,7 +6614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181C488D-D3CA-489F-A910-CF0885F1C071}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FDD99B-2AAE-4909-8D74-38F821B1EC87}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7945,7 +7945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0086E749-9FCA-46D5-BA42-BAF31CAB33B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8874F744-1741-4F8E-9799-99A2C2884A64}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -9277,7 +9277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24C3176-97FD-4EA1-8B4B-63DCE4D4BC83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618170DA-9A9D-4E55-8236-39DBDC07B456}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10607,7 +10607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B192194-5AFA-4D3A-85C0-A8A5BCFB32B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5719DD-2A42-4E8A-A688-CEF0C3049CA6}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11939,7 +11939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B4B42E-472D-432C-AB52-1C57669C101E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3183BE31-95EC-4748-97BD-DCBFC94C1140}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13271,7 +13271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016F89F0-1DA1-4C00-8C8F-D29324CC7B3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A539AB-1181-495C-8CEA-58860AC8C6C0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14603,7 +14603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE865DA0-F6ED-4146-A020-F51925F18CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A130F99E-28EA-46AE-8B45-0AE6A1E4767D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15937,7 +15937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8FE01A-F4C7-4A2F-84AB-39F19CE8080C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB328D4D-2F5A-4D32-8503-F94E484E7F21}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
